--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1327.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1327.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.067310793968228</v>
+        <v>0.9872071743011475</v>
       </c>
       <c r="B1">
-        <v>2.566187178261664</v>
+        <v>1.984674572944641</v>
       </c>
       <c r="C1">
-        <v>5.005279420520733</v>
+        <v>8.639707565307617</v>
       </c>
       <c r="D1">
-        <v>2.255336369467329</v>
+        <v>2.797600746154785</v>
       </c>
       <c r="E1">
-        <v>1.221116268020284</v>
+        <v>1.424680471420288</v>
       </c>
     </row>
   </sheetData>
